--- a/Data/Processing/2024-02-02/MOLDTKPAC.xlsx
+++ b/Data/Processing/2024-02-02/MOLDTKPAC.xlsx
@@ -2869,7 +2869,7 @@
         <v>943.8200000000001</v>
       </c>
       <c r="D47">
-        <v>924.04</v>
+        <v>924.05</v>
       </c>
       <c r="E47">
         <v>928.37</v>
@@ -2899,7 +2899,7 @@
         <v>0.47</v>
       </c>
       <c r="N47">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="O47">
         <v>937.018409090909</v>
